--- a/results/financial_model.xlsx
+++ b/results/financial_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\time_series_padova\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A138355-1BB9-4A38-BD32-8D191BE333BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE69DD4-FBEE-4667-98B3-0F227A9B6128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forecast" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="IS" sheetId="3" r:id="rId3"/>
     <sheet name="BS" sheetId="4" r:id="rId4"/>
     <sheet name="CF" sheetId="5" r:id="rId5"/>
+    <sheet name="PPE" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>date</t>
   </si>
@@ -61,13 +62,290 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Costos de venta y prestación de servicios</t>
+  </si>
+  <si>
+    <t>Gastos de administración</t>
+  </si>
+  <si>
+    <t>Gastos de ventas</t>
+  </si>
+  <si>
+    <t>Otros ingresos</t>
+  </si>
+  <si>
+    <t>Resultado operacional</t>
+  </si>
+  <si>
+    <t>Otros gastos financieros</t>
+  </si>
+  <si>
+    <t>Resultado antes de impuestos</t>
+  </si>
+  <si>
+    <t>Impuestos de renta corriente</t>
+  </si>
+  <si>
+    <t>Resultado neto</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>Activos corrientes</t>
+  </si>
+  <si>
+    <t>Activos no corrientes</t>
+  </si>
+  <si>
+    <t>Activo total</t>
+  </si>
+  <si>
+    <t>Pasivos corrientes</t>
+  </si>
+  <si>
+    <t>Pasivos no corrientes</t>
+  </si>
+  <si>
+    <t>Pasivo total</t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>% Ventas</t>
+  </si>
+  <si>
+    <t>% YoY</t>
+  </si>
+  <si>
+    <t>Depreciaciones</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Amortizaciones</t>
+  </si>
+  <si>
+    <t>D&amp;A$</t>
+  </si>
+  <si>
+    <t>D&amp;A%</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Depreciaciones % Activos fijos</t>
+  </si>
+  <si>
+    <t>Drivers</t>
+  </si>
+  <si>
+    <t>Beginning PP&amp;E</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Ending PP&amp;E</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Operating taxes</t>
+  </si>
+  <si>
+    <t>NOPAT</t>
+  </si>
+  <si>
+    <t>NWC (Net Worwing Capital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Δ NWC (Net Worwing Capital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +Δ Operating Provisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Depreciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Capex Tangible Fixed Assetes (TFA)</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Discount rate</t>
+  </si>
+  <si>
+    <t>PV FCF</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
+  </si>
+  <si>
+    <t>Tax rate</t>
+  </si>
+  <si>
+    <t>Market risk premium</t>
+  </si>
+  <si>
+    <t>Long term growth</t>
+  </si>
+  <si>
+    <t>Unlevered beta</t>
+  </si>
+  <si>
+    <t>Risk free rate</t>
+  </si>
+  <si>
+    <t>Long term ROCB</t>
+  </si>
+  <si>
+    <t>Target debt/equity ratio</t>
+  </si>
+  <si>
+    <t>Small firm premium</t>
+  </si>
+  <si>
+    <t>Bond rating</t>
+  </si>
+  <si>
+    <t>Credit spread debt</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>risk free rate + credit spread</t>
+  </si>
+  <si>
+    <t>relevered beta</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>E / V</t>
+  </si>
+  <si>
+    <t>equity / (equity + debt)</t>
+  </si>
+  <si>
+    <t>D/V</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Baa2</t>
+  </si>
+  <si>
+    <t>Exit Multiple</t>
+  </si>
+  <si>
+    <t>FWD EBITDA</t>
+  </si>
+  <si>
+    <t>IRR FCF</t>
+  </si>
+  <si>
+    <t>IRR AVG EV</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Initial investment</t>
+  </si>
+  <si>
+    <t>EV FCF</t>
+  </si>
+  <si>
+    <t>Sales EUR</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;?_);@_)"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="0.000%"/>
+    <numFmt numFmtId="175" formatCode="0.00\x"/>
+  </numFmts>
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +385,239 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -144,12 +645,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -166,16 +760,118 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="24" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="29" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="28" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="32" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="33" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Exam dec 2009 final" xfId="3" xr:uid="{DF4600AA-DE33-44B7-A3DB-B68BD75BAE32}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -189,6 +885,915 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IS!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales EUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IS!$C$4:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2029</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IS!$C$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>209101.9859090909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>316548.9197727273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>337173.35546247731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>404479.13500000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>448621.17093921691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>494678.89985994512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>545465.14925797086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>601465.37307182199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D708-4BC9-90EB-B9E79F26AFC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="289265231"/>
+        <c:axId val="289246511"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="289265231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289246511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="289246511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289265231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A75929-ED04-AB7D-287C-D6BEEB604E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,7 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314C7F96-EC5F-4760-9CB2-5CA48DBFFB51}">
   <dimension ref="B1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B75"/>
     </sheetView>
   </sheetViews>
@@ -2099,36 +3704,2567 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B44F11-AD96-4F90-96F3-54D69B79CC8C}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="11">
+        <v>920048738</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1392815247</v>
+      </c>
+      <c r="E5" s="15">
+        <f>+SUMIF('sales_m+forecast'!$B:$B,IS!E$4,'sales_m+forecast'!$E:$E)</f>
+        <v>1483562764.0349002</v>
+      </c>
+      <c r="F5" s="15">
+        <f>+SUMIF('sales_m+forecast'!$B:$B,IS!F$4,'sales_m+forecast'!$E:$E)</f>
+        <v>1779708194</v>
+      </c>
+      <c r="G5" s="15">
+        <f>+SUMIF('sales_m+forecast'!$B:$B,IS!G$4,'sales_m+forecast'!$E:$E)</f>
+        <v>1973933152.1325545</v>
+      </c>
+      <c r="H5" s="15">
+        <f>+SUMIF('sales_m+forecast'!$B:$B,IS!H$4,'sales_m+forecast'!$E:$E)</f>
+        <v>2176587159.3837585</v>
+      </c>
+      <c r="I5" s="15">
+        <f>+H5*(1+I15)</f>
+        <v>2400046656.7350717</v>
+      </c>
+      <c r="J5" s="15">
+        <f>+I5*(1+J15)</f>
+        <v>2646447641.516017</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>352594704</v>
+      </c>
+      <c r="D6" s="11">
+        <v>549003232</v>
+      </c>
+      <c r="E6" s="21">
+        <f>+E$5*E20</f>
+        <v>576662948.24550498</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" ref="F6:J6" si="0">+F$5*F20</f>
+        <v>622897867.89999998</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
+        <v>690876603.24639404</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>761805505.78431547</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="0"/>
+        <v>840016329.85727501</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="0"/>
+        <v>926256674.53060591</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11">
+        <v>36699247</v>
+      </c>
+      <c r="D7" s="11">
+        <v>162898264</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" ref="E7:J7" si="1">+E$5*E21</f>
+        <v>116344322.90013431</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="1"/>
+        <v>173858236.74531502</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="1"/>
+        <v>173816091.82948503</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="1"/>
+        <v>202144976.51145732</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="1"/>
+        <v>217118013.6887739</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="1"/>
+        <v>242595260.80792299</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>475432662</v>
+      </c>
+      <c r="D8" s="11">
+        <v>696655420</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" ref="E8:J8" si="2">+E$5*E22</f>
+        <v>754336156.44720101</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="2"/>
+        <v>800868687.30000007</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="2"/>
+        <v>888269918.45964956</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="2"/>
+        <v>979464221.72269142</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="2"/>
+        <v>1080020995.5307822</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="2"/>
+        <v>1190901438.6822076</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3603219</v>
+      </c>
+      <c r="D9" s="11">
+        <v>10478117</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" ref="E9:J9" si="3">+E$5*E23</f>
+        <v>8485468.5683122464</v>
+      </c>
+      <c r="F9" s="21">
+        <f>+F$5*F23</f>
+        <v>11784011.128590522</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="3"/>
+        <v>12180127.253233457</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="3"/>
+        <v>13921236.677034864</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="3"/>
+        <v>15079958.159269309</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="3"/>
+        <v>16777280.620239891</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="19">
+        <v>58925344</v>
+      </c>
+      <c r="D10" s="19">
+        <v>-5263551</v>
+      </c>
+      <c r="E10" s="20">
+        <f>+E5-E6-E7-E8+E9</f>
+        <v>44704805.010372117</v>
+      </c>
+      <c r="F10" s="20">
+        <f>+F5-F6-F7-F8+F9</f>
+        <v>193867413.18327528</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" ref="G10:J10" si="4">+G5-G6-G7-G8+G9</f>
+        <v>233150665.85025933</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="4"/>
+        <v>247093692.04232895</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="4"/>
+        <v>277971275.81750989</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="4"/>
+        <v>303471548.11552042</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11">
+        <v>32011805</v>
+      </c>
+      <c r="D11" s="11">
+        <v>77984134</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" ref="E11:J11" si="5">+E$5*E25</f>
+        <v>67341799.500942007</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="5"/>
+        <v>90215400.058535814</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="5"/>
+        <v>94830772.885556638</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="5"/>
+        <v>107450110.42400318</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="5"/>
+        <v>116891701.61215426</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="5"/>
+        <v>129768896.80965064</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11">
+        <v>26913539</v>
+      </c>
+      <c r="D12" s="11">
+        <v>-83247685</v>
+      </c>
+      <c r="E12" s="10">
+        <f>+E10-E11</f>
+        <v>-22636994.49056989</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:J12" si="6">+F10-F11</f>
+        <v>103652013.12473947</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="6"/>
+        <v>138319892.9647027</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="6"/>
+        <v>139643581.61832577</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="6"/>
+        <v>161079574.20535564</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="6"/>
+        <v>173702651.30586976</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11">
+        <v>16372000</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <f>+IF(E12&lt;0,0,E12*E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" ref="F13:J13" si="7">+IF(F12&lt;0,0,F12*F27)</f>
+        <v>36278204.593658812</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="7"/>
+        <v>48411962.537645943</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="7"/>
+        <v>48875253.566414014</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="7"/>
+        <v>56377850.971874475</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="7"/>
+        <v>60795927.957054414</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="19">
+        <v>10541539</v>
+      </c>
+      <c r="D14" s="19">
+        <v>-83247685</v>
+      </c>
+      <c r="E14" s="20">
+        <f>+E13+E12</f>
+        <v>-22636994.49056989</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" ref="F14:J14" si="8">+F13+F12</f>
+        <v>139930217.71839827</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="8"/>
+        <v>186731855.50234863</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="8"/>
+        <v>188518835.18473977</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="8"/>
+        <v>217457425.17723012</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="8"/>
+        <v>234498579.26292416</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="13">
+        <f>+D5/C5-1</f>
+        <v>0.51384941848591503</v>
+      </c>
+      <c r="E15" s="13">
+        <f>+E5/D5-1</f>
+        <v>6.5154023285114215E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" ref="F15:H15" si="9">+F5/E5-1</f>
+        <v>0.19961772912098596</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="9"/>
+        <v>0.10913303584674883</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="9"/>
+        <v>0.10266508115143869</v>
+      </c>
+      <c r="I15" s="17">
+        <f>+H15</f>
+        <v>0.10266508115143869</v>
+      </c>
+      <c r="J15" s="16">
+        <f>+I15</f>
+        <v>0.10266508115143869</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="21">
+        <f>+C5/CF!$C$38</f>
+        <v>209101.9859090909</v>
+      </c>
+      <c r="D17" s="21">
+        <f>+D5/CF!$C$38</f>
+        <v>316548.9197727273</v>
+      </c>
+      <c r="E17" s="21">
+        <f>+E5/CF!$C$38</f>
+        <v>337173.35546247731</v>
+      </c>
+      <c r="F17" s="21">
+        <f>+F5/CF!$C$38</f>
+        <v>404479.13500000001</v>
+      </c>
+      <c r="G17" s="21">
+        <f>+G5/CF!$C$38</f>
+        <v>448621.17093921691</v>
+      </c>
+      <c r="H17" s="21">
+        <f>+H5/CF!$C$38</f>
+        <v>494678.89985994512</v>
+      </c>
+      <c r="I17" s="21">
+        <f>+I5/CF!$C$38</f>
+        <v>545465.14925797086</v>
+      </c>
+      <c r="J17" s="21">
+        <f>+J5/CF!$C$38</f>
+        <v>601465.37307182199</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="14">
+        <f>+C6/C$5</f>
+        <v>0.38323481076281851</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" ref="D20:D27" si="10">+D6/D$5</f>
+        <v>0.39416802277438023</v>
+      </c>
+      <c r="E20" s="16">
+        <f>+AVERAGE(C20:D20)</f>
+        <v>0.38870141676859937</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="G20" s="16">
+        <f>+F20</f>
+        <v>0.35</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" ref="H20:J20" si="11">+G20</f>
+        <v>0.35</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="11"/>
+        <v>0.35</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="11"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="14">
+        <f>+C7/C$5</f>
+        <v>3.9888372739662406E-2</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="10"/>
+        <v>0.11695611772693353</v>
+      </c>
+      <c r="E21" s="16">
+        <f>+AVERAGE(C21:D21)</f>
+        <v>7.8422245233297966E-2</v>
+      </c>
+      <c r="F21" s="16">
+        <f>+AVERAGE(D21:E21)</f>
+        <v>9.7689181480115739E-2</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" ref="G21:J21" si="12">+AVERAGE(E21:F21)</f>
+        <v>8.8055713356706852E-2</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="12"/>
+        <v>9.2872447418411302E-2</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="12"/>
+        <v>9.046408038755907E-2</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="12"/>
+        <v>9.1668263902985186E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" ref="C22" si="13">+C8/C$5</f>
+        <v>0.5167472573610552</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="10"/>
+        <v>0.50017791053087168</v>
+      </c>
+      <c r="E22" s="16">
+        <f>+AVERAGE(C22:D22)</f>
+        <v>0.50846258394596344</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="G22" s="16">
+        <f>+F22</f>
+        <v>0.45</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" ref="H22:J22" si="14">+G22</f>
+        <v>0.45</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="14"/>
+        <v>0.45</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="14"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" ref="C23" si="15">+C9/C$5</f>
+        <v>3.916334919205117E-3</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="10"/>
+        <v>7.5229769508690621E-3</v>
+      </c>
+      <c r="E23" s="16">
+        <f>+AVERAGE(C23:D23)</f>
+        <v>5.71965593503709E-3</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" ref="F23:J23" si="16">+AVERAGE(D23:E23)</f>
+        <v>6.6213164429530756E-3</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" si="16"/>
+        <v>6.1704861889950828E-3</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="16"/>
+        <v>6.3959013159740792E-3</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="16"/>
+        <v>6.283193752484581E-3</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="16"/>
+        <v>6.3395475342293301E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" ref="C25" si="17">+C11/C$5</f>
+        <v>3.4793596988771699E-2</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="10"/>
+        <v>5.5990293161975992E-2</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" ref="E25:J25" si="18">+AVERAGE(C25:D25)</f>
+        <v>4.5391945075373849E-2</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="18"/>
+        <v>5.0691119118674924E-2</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="18"/>
+        <v>4.8041532097024386E-2</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="18"/>
+        <v>4.9366325607849655E-2</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="18"/>
+        <v>4.8703928852437017E-2</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="18"/>
+        <v>4.9035127230143333E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="14">
+        <f t="shared" ref="C27" si="19">+C13/C$5</f>
+        <v>1.7794709479836274E-2</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="34">
+        <v>1556658</v>
+      </c>
+      <c r="D31" s="34">
+        <v>1556658</v>
+      </c>
+      <c r="E31" s="10">
+        <f>+D31</f>
+        <v>1556658</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" ref="F31:J31" si="20">+E31</f>
+        <v>1556658</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="20"/>
+        <v>1556658</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="20"/>
+        <v>1556658</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="20"/>
+        <v>1556658</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" si="20"/>
+        <v>1556658</v>
+      </c>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="10">
+        <f>+C11</f>
+        <v>32011805</v>
+      </c>
+      <c r="D32" s="10">
+        <f>+D11</f>
+        <v>77984134</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" ref="E32:J32" si="21">+E11</f>
+        <v>67341799.500942007</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="21"/>
+        <v>90215400.058535814</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="21"/>
+        <v>94830772.885556638</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="21"/>
+        <v>107450110.42400318</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="21"/>
+        <v>116891701.61215426</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="21"/>
+        <v>129768896.80965064</v>
+      </c>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="20">
+        <f>+C32+C31</f>
+        <v>33568463</v>
+      </c>
+      <c r="D33" s="20">
+        <f t="shared" ref="D33:J33" si="22">+D32+D31</f>
+        <v>79540792</v>
+      </c>
+      <c r="E33" s="20">
+        <f t="shared" si="22"/>
+        <v>68898457.500942007</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="22"/>
+        <v>91772058.058535814</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" si="22"/>
+        <v>96387430.885556638</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="22"/>
+        <v>109006768.42400318</v>
+      </c>
+      <c r="I33" s="20">
+        <f t="shared" si="22"/>
+        <v>118448359.61215426</v>
+      </c>
+      <c r="J33" s="20">
+        <f t="shared" si="22"/>
+        <v>131325554.80965064</v>
+      </c>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="14">
+        <f>+C31/BS!C6</f>
+        <v>2.1597306761080074E-2</v>
+      </c>
+      <c r="D36" s="14">
+        <f>+D31/BS!D6</f>
+        <v>1.718617088770022E-2</v>
+      </c>
+      <c r="E36" s="16">
+        <f>+AVERAGE(C36:D36)</f>
+        <v>1.9391738824390145E-2</v>
+      </c>
+      <c r="F36" s="16">
+        <f>+E36</f>
+        <v>1.9391738824390145E-2</v>
+      </c>
+      <c r="G36" s="16">
+        <f t="shared" ref="G36:J36" si="23">+F36</f>
+        <v>1.9391738824390145E-2</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" si="23"/>
+        <v>1.9391738824390145E-2</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" si="23"/>
+        <v>1.9391738824390145E-2</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" si="23"/>
+        <v>1.9391738824390145E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="14">
+        <f t="shared" ref="C37:D37" si="24">+C32/C$5</f>
+        <v>3.4793596988771699E-2</v>
+      </c>
+      <c r="D37" s="14">
+        <f>+D32/D$5</f>
+        <v>5.5990293161975992E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="10">
+        <f>+C10</f>
+        <v>58925344</v>
+      </c>
+      <c r="D39" s="10">
+        <f>+D10</f>
+        <v>-5263551</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" ref="E39:J39" si="25">+E10</f>
+        <v>44704805.010372117</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="25"/>
+        <v>193867413.18327528</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="25"/>
+        <v>233150665.85025933</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="25"/>
+        <v>247093692.04232895</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="25"/>
+        <v>277971275.81750989</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" si="25"/>
+        <v>303471548.11552042</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="9" t="str">
+        <f>+B36</f>
+        <v>Depreciaciones % Activos fijos</v>
+      </c>
+      <c r="C40" s="10">
+        <f>+C31</f>
+        <v>1556658</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" ref="D40:J40" si="26">+D31</f>
+        <v>1556658</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="26"/>
+        <v>1556658</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="26"/>
+        <v>1556658</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="26"/>
+        <v>1556658</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="26"/>
+        <v>1556658</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="26"/>
+        <v>1556658</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" si="26"/>
+        <v>1556658</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="9" t="str">
+        <f>+B37</f>
+        <v>Amortizaciones</v>
+      </c>
+      <c r="C41" s="10">
+        <f>+C32</f>
+        <v>32011805</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" ref="D41:J41" si="27">+D32</f>
+        <v>77984134</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="27"/>
+        <v>67341799.500942007</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="27"/>
+        <v>90215400.058535814</v>
+      </c>
+      <c r="G41" s="10">
+        <f t="shared" si="27"/>
+        <v>94830772.885556638</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="27"/>
+        <v>107450110.42400318</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="27"/>
+        <v>116891701.61215426</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" si="27"/>
+        <v>129768896.80965064</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="20">
+        <f>+C39+C40+C41</f>
+        <v>92493807</v>
+      </c>
+      <c r="D42" s="20">
+        <f t="shared" ref="D42:J42" si="28">+D39+D40+D41</f>
+        <v>74277241</v>
+      </c>
+      <c r="E42" s="20">
+        <f t="shared" si="28"/>
+        <v>113603262.51131412</v>
+      </c>
+      <c r="F42" s="20">
+        <f t="shared" si="28"/>
+        <v>285639471.2418111</v>
+      </c>
+      <c r="G42" s="20">
+        <f t="shared" si="28"/>
+        <v>329538096.735816</v>
+      </c>
+      <c r="H42" s="20">
+        <f t="shared" si="28"/>
+        <v>356100460.46633214</v>
+      </c>
+      <c r="I42" s="20">
+        <f t="shared" si="28"/>
+        <v>396419635.42966413</v>
+      </c>
+      <c r="J42" s="20">
+        <f t="shared" si="28"/>
+        <v>434797102.92517108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26FFB8-69D9-422C-A6E1-4F6A195AFA66}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11">
+        <v>96023606</v>
+      </c>
+      <c r="D5" s="11">
+        <v>111867928</v>
+      </c>
+      <c r="E5" s="21">
+        <f>+D5*(1+E$14)</f>
+        <v>119156573.58576947</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" ref="F5:J5" si="0">+E5*(1+F$14)</f>
+        <v>142942338.21479845</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="0"/>
+        <v>158542069.53521216</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>174818803.96996176</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="0"/>
+        <v>192766590.66633534</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="0"/>
+        <v>212556988.34038082</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11">
+        <v>72076487</v>
+      </c>
+      <c r="D6" s="11">
+        <v>90576197</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" ref="E6:J6" si="1">+D6*(1+E$14)</f>
+        <v>96477600.648415089</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="1"/>
+        <v>115736240.20089307</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="1"/>
+        <v>128366887.45150506</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="1"/>
+        <v>141545684.36887142</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="1"/>
+        <v>156077483.54123753</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="1"/>
+        <v>172101191.05491102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="19">
+        <v>168100093</v>
+      </c>
+      <c r="D7" s="19">
+        <v>202444125</v>
+      </c>
+      <c r="E7" s="20">
+        <f>+E6+E5</f>
+        <v>215634174.23418456</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" ref="F7:J7" si="2">+F6+F5</f>
+        <v>258678578.41569152</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="2"/>
+        <v>286908956.98671722</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="2"/>
+        <v>316364488.33883321</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="2"/>
+        <v>348844074.20757288</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="2"/>
+        <v>384658179.39529181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11">
+        <v>72263489</v>
+      </c>
+      <c r="D8" s="11">
+        <v>185001855</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" ref="E8:J8" si="3">+D8*(1+E$14)</f>
+        <v>197055470.16845933</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="3"/>
+        <v>236391235.63435537</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="3"/>
+        <v>262189328.82669672</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="3"/>
+        <v>289107017.5477308</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="3"/>
+        <v>318788212.96571898</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="3"/>
+        <v>351516630.71996665</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11">
+        <v>185108</v>
+      </c>
+      <c r="D9" s="11">
+        <v>5038459</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" ref="E9:J9" si="4">+D9*(1+E$14)</f>
+        <v>5366734.875007093</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="4"/>
+        <v>6438030.3035504073</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="4"/>
+        <v>7140632.095450229</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="4"/>
+        <v>7873725.6690021949</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="4"/>
+        <v>8682082.3537744712</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="4"/>
+        <v>9573429.0431882013</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="19">
+        <v>72448597</v>
+      </c>
+      <c r="D10" s="19">
+        <v>190040314</v>
+      </c>
+      <c r="E10" s="20">
+        <f>+E9+E8</f>
+        <v>202422205.04346642</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" ref="F10:J10" si="5">+F9+F8</f>
+        <v>242829265.93790579</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="5"/>
+        <v>269329960.92214698</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="5"/>
+        <v>296980743.21673298</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="5"/>
+        <v>327470295.31949347</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="5"/>
+        <v>361090059.76315486</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11">
+        <v>95651496</v>
+      </c>
+      <c r="D11" s="11">
+        <v>12403811</v>
+      </c>
+      <c r="E11" s="10">
+        <f>+E7-E10</f>
+        <v>13211969.190718144</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:J11" si="6">+F7-F10</f>
+        <v>15849312.477785736</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="6"/>
+        <v>17578996.064570248</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="6"/>
+        <v>19383745.122100234</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="6"/>
+        <v>21373778.888079405</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="6"/>
+        <v>23568119.632136941</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="23">
+        <f>+IS!E15</f>
+        <v>6.5154023285114215E-2</v>
+      </c>
+      <c r="F14" s="23">
+        <f>+IS!F15</f>
+        <v>0.19961772912098596</v>
+      </c>
+      <c r="G14" s="23">
+        <f>+IS!G15</f>
+        <v>0.10913303584674883</v>
+      </c>
+      <c r="H14" s="23">
+        <f>+IS!H15</f>
+        <v>0.10266508115143869</v>
+      </c>
+      <c r="I14" s="23">
+        <f>+IS!I15</f>
+        <v>0.10266508115143869</v>
+      </c>
+      <c r="J14" s="23">
+        <f>+IS!J15</f>
+        <v>0.10266508115143869</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B502B8-38B1-4B53-AFCB-AAA416599912}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" style="9" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="56">
+        <v>0.35</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="59">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="59">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="57">
+        <v>1</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="59">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="59">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="57">
+        <v>0</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="59">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="59">
+        <v>1.89E-2</v>
+      </c>
+      <c r="I8" s="44"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="53">
+        <f>+H6+H8</f>
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="54">
+        <f>+D6*(1+(1-D5)*D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="53">
+        <f>+D14*H5+H6+H7</f>
+        <v>0.1416</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="54">
+        <f>1/(1+D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="54">
+        <f>1-D16</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="55">
+        <f>+D15*D16+D13*(1-D5)*D17</f>
+        <v>0.1416</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="49">
+        <v>2021</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="45">
+        <f>+IS!C10</f>
+        <v>58925344</v>
+      </c>
+      <c r="E26" s="45">
+        <f>+IS!D10</f>
+        <v>-5263551</v>
+      </c>
+      <c r="F26" s="45">
+        <f>+IS!E10</f>
+        <v>44704805.010372117</v>
+      </c>
+      <c r="G26" s="45">
+        <f>+IS!F10</f>
+        <v>193867413.18327528</v>
+      </c>
+      <c r="H26" s="45">
+        <f>+IS!G10</f>
+        <v>233150665.85025933</v>
+      </c>
+      <c r="I26" s="45">
+        <f>+IS!H10</f>
+        <v>247093692.04232895</v>
+      </c>
+      <c r="J26" s="45">
+        <f>+IS!I10</f>
+        <v>277971275.81750989</v>
+      </c>
+      <c r="K26" s="45">
+        <f>+IS!J10</f>
+        <v>303471548.11552042</v>
+      </c>
+      <c r="L26" s="45"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45">
+        <f>+F26*$D$5</f>
+        <v>15646681.75363024</v>
+      </c>
+      <c r="G27" s="45">
+        <f t="shared" ref="G27:K27" si="0">+G26*$D$5</f>
+        <v>67853594.614146352</v>
+      </c>
+      <c r="H27" s="45">
+        <f t="shared" si="0"/>
+        <v>81602733.047590762</v>
+      </c>
+      <c r="I27" s="45">
+        <f t="shared" si="0"/>
+        <v>86482792.214815125</v>
+      </c>
+      <c r="J27" s="45">
+        <f t="shared" si="0"/>
+        <v>97289946.536128461</v>
+      </c>
+      <c r="K27" s="45">
+        <f t="shared" si="0"/>
+        <v>106215041.84043214</v>
+      </c>
+      <c r="L27" s="44"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="47">
+        <f>+F26-F27</f>
+        <v>29058123.256741878</v>
+      </c>
+      <c r="G28" s="47">
+        <f t="shared" ref="G28:K28" si="1">+G26-G27</f>
+        <v>126013818.56912893</v>
+      </c>
+      <c r="H28" s="47">
+        <f t="shared" si="1"/>
+        <v>151547932.80266857</v>
+      </c>
+      <c r="I28" s="47">
+        <f t="shared" si="1"/>
+        <v>160610899.82751381</v>
+      </c>
+      <c r="J28" s="47">
+        <f t="shared" si="1"/>
+        <v>180681329.28138143</v>
+      </c>
+      <c r="K28" s="47">
+        <f t="shared" si="1"/>
+        <v>197256506.27508828</v>
+      </c>
+      <c r="L28" s="47">
+        <f>+K28*(1+K5)</f>
+        <v>203174201.46334094</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45">
+        <f>+BS!D6-BS!D9</f>
+        <v>85537738</v>
+      </c>
+      <c r="F29" s="45">
+        <f>+BS!E6-BS!E9</f>
+        <v>91110865.773407996</v>
+      </c>
+      <c r="G29" s="45">
+        <f>+BS!F6-BS!F9</f>
+        <v>109298209.89734267</v>
+      </c>
+      <c r="H29" s="45">
+        <f>+BS!G6-BS!G9</f>
+        <v>121226255.35605484</v>
+      </c>
+      <c r="I29" s="45">
+        <f>+BS!H6-BS!H9</f>
+        <v>133671958.69986923</v>
+      </c>
+      <c r="J29" s="45">
+        <f>+BS!I6-BS!I9</f>
+        <v>147395401.18746307</v>
+      </c>
+      <c r="K29" s="45">
+        <f>+BS!J6-BS!J9</f>
+        <v>162527762.0117228</v>
+      </c>
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45">
+        <f t="shared" ref="F30:K30" si="2">+F29-E29</f>
+        <v>5573127.7734079957</v>
+      </c>
+      <c r="G30" s="45">
+        <f t="shared" si="2"/>
+        <v>18187344.123934671</v>
+      </c>
+      <c r="H30" s="45">
+        <f t="shared" si="2"/>
+        <v>11928045.458712175</v>
+      </c>
+      <c r="I30" s="45">
+        <f t="shared" si="2"/>
+        <v>12445703.343814388</v>
+      </c>
+      <c r="J30" s="45">
+        <f t="shared" si="2"/>
+        <v>13723442.487593845</v>
+      </c>
+      <c r="K30" s="45">
+        <f t="shared" si="2"/>
+        <v>15132360.824259728</v>
+      </c>
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="60">
+        <v>0</v>
+      </c>
+      <c r="G31" s="60">
+        <v>0</v>
+      </c>
+      <c r="H31" s="60">
+        <v>0</v>
+      </c>
+      <c r="I31" s="60">
+        <v>0</v>
+      </c>
+      <c r="J31" s="60">
+        <v>0</v>
+      </c>
+      <c r="K31" s="60">
+        <v>0</v>
+      </c>
+      <c r="L31" s="45"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45">
+        <f>+IS!E40</f>
+        <v>1556658</v>
+      </c>
+      <c r="G32" s="45">
+        <f>+IS!F40</f>
+        <v>1556658</v>
+      </c>
+      <c r="H32" s="45">
+        <f>+IS!G40</f>
+        <v>1556658</v>
+      </c>
+      <c r="I32" s="45">
+        <f>+IS!H40</f>
+        <v>1556658</v>
+      </c>
+      <c r="J32" s="45">
+        <f>+IS!I40</f>
+        <v>1556658</v>
+      </c>
+      <c r="K32" s="45">
+        <f>+IS!J40</f>
+        <v>1556658</v>
+      </c>
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45">
+        <f>+(BS!E5-BS!D5)+IS!E31</f>
+        <v>8845303.5857694745</v>
+      </c>
+      <c r="G33" s="45">
+        <f>+(BS!F5-BS!E5)+IS!F31</f>
+        <v>25342422.629028976</v>
+      </c>
+      <c r="H33" s="45">
+        <f>+(BS!G5-BS!F5)+IS!G31</f>
+        <v>17156389.320413709</v>
+      </c>
+      <c r="I33" s="45">
+        <f>+(BS!H5-BS!G5)+IS!H31</f>
+        <v>17833392.434749603</v>
+      </c>
+      <c r="J33" s="45">
+        <f>+(BS!I5-BS!H5)+IS!I31</f>
+        <v>19504444.696373582</v>
+      </c>
+      <c r="K33" s="45">
+        <f>+(BS!J5-BS!I5)+IS!J31</f>
+        <v>21347055.674045473</v>
+      </c>
+      <c r="L33" s="45"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="61">
+        <f>-20000000/(1/5*1/3)</f>
+        <v>-300000000</v>
+      </c>
+      <c r="D34" s="47">
+        <f t="shared" ref="D34:F34" si="3">+D28-D30+D31+D32-D33</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="47">
+        <f t="shared" si="3"/>
+        <v>16196349.897564407</v>
+      </c>
+      <c r="G34" s="47">
+        <f>+G28-G30+G31+G32-G33</f>
+        <v>84040709.816165283</v>
+      </c>
+      <c r="H34" s="47">
+        <f t="shared" ref="H34:K34" si="4">+H28-H30+H31+H32-H33</f>
+        <v>124020156.0235427</v>
+      </c>
+      <c r="I34" s="47">
+        <f t="shared" si="4"/>
+        <v>131888462.04894984</v>
+      </c>
+      <c r="J34" s="47">
+        <f t="shared" si="4"/>
+        <v>149010100.09741402</v>
+      </c>
+      <c r="K34" s="47">
+        <f t="shared" si="4"/>
+        <v>162333747.77678308</v>
+      </c>
+      <c r="L34" s="47">
+        <f>+L28*(1-(K5/K6))/(D18-K5)</f>
+        <v>1137848350.4891405</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="48">
+        <f>1/(1+D18)</f>
+        <v>0.87596355991590757</v>
+      </c>
+      <c r="H35" s="48">
+        <f>+G35*$G$35</f>
+        <v>0.76731215830054977</v>
+      </c>
+      <c r="I35" s="48">
+        <f>+H35*$G$35</f>
+        <v>0.67213748975170795</v>
+      </c>
+      <c r="J35" s="48">
+        <f>+I35*$G$35</f>
+        <v>0.58876794827584789</v>
+      </c>
+      <c r="K35" s="48">
+        <f>+J35*$G$35</f>
+        <v>0.5157392679360967</v>
+      </c>
+      <c r="L35" s="48">
+        <f>+K35</f>
+        <v>0.5157392679360967</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47">
+        <f t="shared" ref="G36:L36" si="5">+G35*G34</f>
+        <v>73616599.348427907</v>
+      </c>
+      <c r="H36" s="47">
+        <f t="shared" si="5"/>
+        <v>95162173.591195479</v>
+      </c>
+      <c r="I36" s="47">
+        <f t="shared" si="5"/>
+        <v>88647179.808794543</v>
+      </c>
+      <c r="J36" s="47">
+        <f t="shared" si="5"/>
+        <v>87732370.90673317</v>
+      </c>
+      <c r="K36" s="47">
+        <f t="shared" si="5"/>
+        <v>83721888.239721075</v>
+      </c>
+      <c r="L36" s="47">
+        <f t="shared" si="5"/>
+        <v>586833075.30356455</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="64">
+        <v>4400</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="67">
+        <f>+SUM(G36:L36)</f>
+        <v>1015713287.1984367</v>
+      </c>
+      <c r="D39" s="68">
+        <f>+C39/$C$38</f>
+        <v>230843.92890873563</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="69">
+        <v>0</v>
+      </c>
+      <c r="D40" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="69">
+        <v>0</v>
+      </c>
+      <c r="D41" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="67">
+        <f>+C39+C40+C41</f>
+        <v>1015713287.1984367</v>
+      </c>
+      <c r="D42" s="68">
+        <f>+D39+D40+D41</f>
+        <v>230843.92890873563</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="70"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="74">
+        <v>7</v>
+      </c>
+      <c r="D44" s="75">
+        <f>+C44</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="76">
+        <f>+IS!F42</f>
+        <v>285639471.2418111</v>
+      </c>
+      <c r="D45" s="77">
+        <f>+C45/C38</f>
+        <v>64918.061645866161</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="67">
+        <f>+C45*C44</f>
+        <v>1999476298.6926777</v>
+      </c>
+      <c r="D46" s="68">
+        <f>+C46/C38</f>
+        <v>454426.43152106315</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="70"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="79">
+        <f>+C34</f>
+        <v>-300000000</v>
+      </c>
+      <c r="D48" s="80">
+        <f>+C48/$C$38</f>
+        <v>-68181.818181818177</v>
+      </c>
+      <c r="E48" s="62">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="76">
+        <f>+C46</f>
+        <v>1999476298.6926777</v>
+      </c>
+      <c r="D49" s="77">
+        <f>+C49/$C$38</f>
+        <v>454426.43152106315</v>
+      </c>
+      <c r="E49" s="62">
+        <v>47483</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="70"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="81">
+        <f>+IRR(C34:L34)</f>
+        <v>0.26614973525058172</v>
+      </c>
+      <c r="D51" s="82">
+        <f>+C51</f>
+        <v>0.26614973525058172</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="84">
+        <f>+XIRR(C48:C49,E48:E49)</f>
+        <v>0.26737137436866765</v>
+      </c>
+      <c r="D52" s="85">
+        <f>+C52</f>
+        <v>0.26737137436866765</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FE77F2-C0C7-4EA0-B254-84C1D8849AC8}">
+  <dimension ref="B1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="38">
+        <v>72076487</v>
+      </c>
+      <c r="D5" s="25">
+        <f>+C8</f>
+        <v>72076487</v>
+      </c>
+      <c r="E5" s="30">
+        <f>D8</f>
+        <v>90576197</v>
+      </c>
+      <c r="F5" s="30">
+        <f>E8</f>
+        <v>123149659.06905799</v>
+      </c>
+      <c r="G5" s="27">
+        <f>F8</f>
+        <v>136401037.76547217</v>
+      </c>
+      <c r="H5" s="27">
+        <f t="shared" ref="H5:J5" si="0">G8</f>
+        <v>148712863.92128876</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="0"/>
+        <v>152209826.53510684</v>
+      </c>
+      <c r="J5" s="27">
+        <f t="shared" si="0"/>
+        <v>150202828.54709762</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="26">
+        <f>C8-C5-C7</f>
+        <v>33568463</v>
+      </c>
+      <c r="D6" s="26">
+        <f>D8-D5-D7</f>
+        <v>98040502</v>
+      </c>
+      <c r="E6" s="35">
+        <f>+D6*(1+E9)</f>
+        <v>101471919.56999999</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" ref="F6:J6" si="1">+E6*(1+F9)</f>
+        <v>105023436.75494999</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="1"/>
+        <v>108699257.04137322</v>
+      </c>
+      <c r="H6" s="27">
+        <f t="shared" si="1"/>
+        <v>112503731.03782128</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="1"/>
+        <v>116441361.62414502</v>
+      </c>
+      <c r="J6" s="27">
+        <f t="shared" si="1"/>
+        <v>120516809.28099008</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="36">
+        <f>-IS!C33</f>
+        <v>-33568463</v>
+      </c>
+      <c r="D7" s="36">
+        <f>-IS!D33</f>
+        <v>-79540792</v>
+      </c>
+      <c r="E7" s="31">
+        <f>-IS!E33</f>
+        <v>-68898457.500942007</v>
+      </c>
+      <c r="F7" s="31">
+        <f>-IS!F33</f>
+        <v>-91772058.058535814</v>
+      </c>
+      <c r="G7" s="31">
+        <f>-IS!G33</f>
+        <v>-96387430.885556638</v>
+      </c>
+      <c r="H7" s="31">
+        <f>-IS!H33</f>
+        <v>-109006768.42400318</v>
+      </c>
+      <c r="I7" s="31">
+        <f>-IS!I33</f>
+        <v>-118448359.61215426</v>
+      </c>
+      <c r="J7" s="31">
+        <f>-IS!J33</f>
+        <v>-131325554.80965064</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+    </row>
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="37">
+        <f>+BS!C6</f>
+        <v>72076487</v>
+      </c>
+      <c r="D8" s="37">
+        <f>+BS!D6</f>
+        <v>90576197</v>
+      </c>
+      <c r="E8" s="32">
+        <f>+SUM(E5:E7)</f>
+        <v>123149659.06905799</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" ref="F8:J8" si="2">+SUM(F5:F7)</f>
+        <v>136401037.76547217</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="2"/>
+        <v>148712863.92128876</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="2"/>
+        <v>152209826.53510684</v>
+      </c>
+      <c r="I8" s="32">
+        <f t="shared" si="2"/>
+        <v>150202828.54709762</v>
+      </c>
+      <c r="J8" s="32">
+        <f t="shared" si="2"/>
+        <v>139394083.01843703</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E9" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H9" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I9" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J9" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/financial_model.xlsx
+++ b/results/financial_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\time_series_padova\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE69DD4-FBEE-4667-98B3-0F227A9B6128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F91F9AE-D3A8-4E06-9D82-6181365AEED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forecast" sheetId="1" r:id="rId1"/>
@@ -337,13 +337,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;?_);@_)"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.000%"/>
-    <numFmt numFmtId="175" formatCode="0.00\x"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;?_);@_)"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="0.00\x"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -585,7 +585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +613,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +749,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -779,33 +785,32 @@
     <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="22" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="24" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="24" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -817,23 +822,20 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="29" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="28" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="28" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="31" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="32" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="33" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -847,26 +849,26 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="29" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="29" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="28" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2061,7 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B39"/>
     </sheetView>
   </sheetViews>
@@ -2352,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314C7F96-EC5F-4760-9CB2-5CA48DBFFB51}">
   <dimension ref="B1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B75"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3706,8 +3708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B44F11-AD96-4F90-96F3-54D69B79CC8C}">
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3721,36 +3723,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="80" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3799,27 +3801,27 @@
       <c r="D6" s="11">
         <v>549003232</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="10">
         <f>+E$5*E20</f>
         <v>576662948.24550498</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="10">
         <f t="shared" ref="F6:J6" si="0">+F$5*F20</f>
         <v>622897867.89999998</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>690876603.24639404</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="10">
         <f t="shared" si="0"/>
         <v>761805505.78431547</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>840016329.85727501</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="10">
         <f t="shared" si="0"/>
         <v>926256674.53060591</v>
       </c>
@@ -3834,27 +3836,27 @@
       <c r="D7" s="11">
         <v>162898264</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="10">
         <f t="shared" ref="E7:J7" si="1">+E$5*E21</f>
         <v>116344322.90013431</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
         <v>173858236.74531502</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
         <v>173816091.82948503</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>202144976.51145732</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="10">
         <f t="shared" si="1"/>
         <v>217118013.6887739</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="10">
         <f t="shared" si="1"/>
         <v>242595260.80792299</v>
       </c>
@@ -3869,27 +3871,27 @@
       <c r="D8" s="11">
         <v>696655420</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="10">
         <f t="shared" ref="E8:J8" si="2">+E$5*E22</f>
         <v>754336156.44720101</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="10">
         <f t="shared" si="2"/>
         <v>800868687.30000007</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="10">
         <f t="shared" si="2"/>
         <v>888269918.45964956</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="10">
         <f t="shared" si="2"/>
         <v>979464221.72269142</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="10">
         <f t="shared" si="2"/>
         <v>1080020995.5307822</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="10">
         <f t="shared" si="2"/>
         <v>1190901438.6822076</v>
       </c>
@@ -3904,33 +3906,33 @@
       <c r="D9" s="11">
         <v>10478117</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="10">
         <f t="shared" ref="E9:J9" si="3">+E$5*E23</f>
         <v>8485468.5683122464</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="10">
         <f>+F$5*F23</f>
         <v>11784011.128590522</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="10">
         <f t="shared" si="3"/>
         <v>12180127.253233457</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="10">
         <f t="shared" si="3"/>
         <v>13921236.677034864</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="10">
         <f t="shared" si="3"/>
         <v>15079958.159269309</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="10">
         <f t="shared" si="3"/>
         <v>16777280.620239891</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="19">
@@ -3974,27 +3976,27 @@
       <c r="D11" s="11">
         <v>77984134</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="10">
         <f t="shared" ref="E11:J11" si="5">+E$5*E25</f>
         <v>67341799.500942007</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="10">
         <f t="shared" si="5"/>
         <v>90215400.058535814</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="10">
         <f t="shared" si="5"/>
         <v>94830772.885556638</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="10">
         <f t="shared" si="5"/>
         <v>107450110.42400318</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="10">
         <f t="shared" si="5"/>
         <v>116891701.61215426</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="10">
         <f t="shared" si="5"/>
         <v>129768896.80965064</v>
       </c>
@@ -4070,7 +4072,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="19">
@@ -4141,35 +4143,35 @@
       <c r="B17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="10">
         <f>+C5/CF!$C$38</f>
         <v>209101.9859090909</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="10">
         <f>+D5/CF!$C$38</f>
         <v>316548.9197727273</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="10">
         <f>+E5/CF!$C$38</f>
         <v>337173.35546247731</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="10">
         <f>+F5/CF!$C$38</f>
         <v>404479.13500000001</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="10">
         <f>+G5/CF!$C$38</f>
         <v>448621.17093921691</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="10">
         <f>+H5/CF!$C$38</f>
         <v>494678.89985994512</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="10">
         <f>+I5/CF!$C$38</f>
         <v>545465.14925797086</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="10">
         <f>+J5/CF!$C$38</f>
         <v>601465.37307182199</v>
       </c>
@@ -4195,7 +4197,7 @@
         <f>+AVERAGE(C20:D20)</f>
         <v>0.38870141676859937</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="82">
         <v>0.35</v>
       </c>
       <c r="G20" s="16">
@@ -4268,7 +4270,7 @@
         <f>+AVERAGE(C22:D22)</f>
         <v>0.50846258394596344</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="82">
         <v>0.45</v>
       </c>
       <c r="G22" s="16">
@@ -4443,10 +4445,10 @@
       <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="33">
         <v>1556658</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="33">
         <v>1556658</v>
       </c>
       <c r="E31" s="10">
@@ -4514,7 +4516,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="20">
@@ -4598,7 +4600,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="14">
-        <f t="shared" ref="C37:D37" si="24">+C32/C$5</f>
+        <f t="shared" ref="C37" si="24">+C32/C$5</f>
         <v>3.4793596988771699E-2</v>
       </c>
       <c r="D37" s="14">
@@ -4720,7 +4722,7 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="20">
@@ -4780,7 +4782,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="80" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4788,31 +4790,31 @@
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4826,27 +4828,27 @@
       <c r="D5" s="11">
         <v>111867928</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="10">
         <f>+D5*(1+E$14)</f>
         <v>119156573.58576947</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="10">
         <f t="shared" ref="F5:J5" si="0">+E5*(1+F$14)</f>
         <v>142942338.21479845</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>158542069.53521216</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
         <v>174818803.96996176</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>192766590.66633534</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="10">
         <f t="shared" si="0"/>
         <v>212556988.34038082</v>
       </c>
@@ -4861,33 +4863,33 @@
       <c r="D6" s="11">
         <v>90576197</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="10">
         <f t="shared" ref="E6:J6" si="1">+D6*(1+E$14)</f>
         <v>96477600.648415089</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
         <v>115736240.20089307</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="10">
         <f t="shared" si="1"/>
         <v>128366887.45150506</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>141545684.36887142</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="10">
         <f t="shared" si="1"/>
         <v>156077483.54123753</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="10">
         <f t="shared" si="1"/>
         <v>172101191.05491102</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="19">
@@ -4931,27 +4933,27 @@
       <c r="D8" s="11">
         <v>185001855</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="10">
         <f t="shared" ref="E8:J8" si="3">+D8*(1+E$14)</f>
         <v>197055470.16845933</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="10">
         <f t="shared" si="3"/>
         <v>236391235.63435537</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="10">
         <f t="shared" si="3"/>
         <v>262189328.82669672</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="10">
         <f t="shared" si="3"/>
         <v>289107017.5477308</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="10">
         <f t="shared" si="3"/>
         <v>318788212.96571898</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="10">
         <f t="shared" si="3"/>
         <v>351516630.71996665</v>
       </c>
@@ -4966,33 +4968,33 @@
       <c r="D9" s="11">
         <v>5038459</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="10">
         <f t="shared" ref="E9:J9" si="4">+D9*(1+E$14)</f>
         <v>5366734.875007093</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="10">
         <f t="shared" si="4"/>
         <v>6438030.3035504073</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="10">
         <f t="shared" si="4"/>
         <v>7140632.095450229</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="10">
         <f t="shared" si="4"/>
         <v>7873725.6690021949</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="10">
         <f t="shared" si="4"/>
         <v>8682082.3537744712</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="10">
         <f t="shared" si="4"/>
         <v>9573429.0431882013</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="19">
@@ -5070,27 +5072,27 @@
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <f>+IS!E15</f>
         <v>6.5154023285114215E-2</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <f>+IS!F15</f>
         <v>0.19961772912098596</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <f>+IS!G15</f>
         <v>0.10913303584674883</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <f>+IS!H15</f>
         <v>0.10266508115143869</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <f>+IS!I15</f>
         <v>0.10266508115143869</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <f>+IS!J15</f>
         <v>0.10266508115143869</v>
       </c>
@@ -5101,7 +5103,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5135,7 +5137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B502B8-38B1-4B53-AFCB-AAA416599912}">
   <dimension ref="B1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5153,420 +5155,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="80" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="56">
+      <c r="C5" s="41"/>
+      <c r="D5" s="54">
         <v>0.35</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="59">
+      <c r="G5" s="41"/>
+      <c r="H5" s="57">
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="59">
+      <c r="J5" s="81"/>
+      <c r="K5" s="57">
         <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="57">
+      <c r="C6" s="41"/>
+      <c r="D6" s="55">
         <v>1</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="42" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="59">
+      <c r="G6" s="41"/>
+      <c r="H6" s="57">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="59">
+      <c r="J6" s="81"/>
+      <c r="K6" s="57">
         <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="57">
+      <c r="C7" s="41"/>
+      <c r="D7" s="55">
         <v>0</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="42" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="59">
+      <c r="G7" s="41"/>
+      <c r="H7" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="58" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="42" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="59">
+      <c r="G8" s="41"/>
+      <c r="H8" s="57">
         <v>1.89E-2</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="51">
         <f>+H6+H8</f>
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="54">
+      <c r="C14" s="43"/>
+      <c r="D14" s="52">
         <f>+D6*(1+(1-D5)*D7)</f>
         <v>1</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="53">
+      <c r="C15" s="43"/>
+      <c r="D15" s="51">
         <f>+D14*H5+H6+H7</f>
         <v>0.1416</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="52">
         <f>1/(1+D7)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="54">
+      <c r="C17" s="43"/>
+      <c r="D17" s="52">
         <f>1-D16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="55">
+      <c r="C18" s="43"/>
+      <c r="D18" s="53">
         <f>+D15*D16+D13*(1-D5)*D17</f>
         <v>0.1416</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="48">
         <v>2021</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="49" t="s">
+      <c r="K24" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
+      <c r="B25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="44">
         <f>+IS!C10</f>
         <v>58925344</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="44">
         <f>+IS!D10</f>
         <v>-5263551</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="44">
         <f>+IS!E10</f>
         <v>44704805.010372117</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="44">
         <f>+IS!F10</f>
         <v>193867413.18327528</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="44">
         <f>+IS!G10</f>
         <v>233150665.85025933</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="44">
         <f>+IS!H10</f>
         <v>247093692.04232895</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="44">
         <f>+IS!I10</f>
         <v>277971275.81750989</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="44">
         <f>+IS!J10</f>
         <v>303471548.11552042</v>
       </c>
-      <c r="L26" s="45"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45">
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44">
         <f>+F26*$D$5</f>
         <v>15646681.75363024</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="44">
         <f t="shared" ref="G27:K27" si="0">+G26*$D$5</f>
         <v>67853594.614146352</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="44">
         <f t="shared" si="0"/>
         <v>81602733.047590762</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="44">
         <f t="shared" si="0"/>
         <v>86482792.214815125</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="44">
         <f t="shared" si="0"/>
         <v>97289946.536128461</v>
       </c>
-      <c r="K27" s="45">
+      <c r="K27" s="44">
         <f t="shared" si="0"/>
         <v>106215041.84043214</v>
       </c>
-      <c r="L27" s="44"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="47">
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="46">
         <f>+F26-F27</f>
         <v>29058123.256741878</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="46">
         <f t="shared" ref="G28:K28" si="1">+G26-G27</f>
         <v>126013818.56912893</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="46">
         <f t="shared" si="1"/>
         <v>151547932.80266857</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="46">
         <f t="shared" si="1"/>
         <v>160610899.82751381</v>
       </c>
-      <c r="J28" s="47">
+      <c r="J28" s="46">
         <f t="shared" si="1"/>
         <v>180681329.28138143</v>
       </c>
-      <c r="K28" s="47">
+      <c r="K28" s="46">
         <f t="shared" si="1"/>
         <v>197256506.27508828</v>
       </c>
-      <c r="L28" s="47">
+      <c r="L28" s="46">
         <f>+K28*(1+K5)</f>
         <v>203174201.46334094</v>
       </c>
@@ -5575,200 +5577,200 @@
       <c r="B29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45">
+      <c r="D29" s="43"/>
+      <c r="E29" s="44">
         <f>+BS!D6-BS!D9</f>
         <v>85537738</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="44">
         <f>+BS!E6-BS!E9</f>
         <v>91110865.773407996</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="44">
         <f>+BS!F6-BS!F9</f>
         <v>109298209.89734267</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="44">
         <f>+BS!G6-BS!G9</f>
         <v>121226255.35605484</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="44">
         <f>+BS!H6-BS!H9</f>
         <v>133671958.69986923</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="44">
         <f>+BS!I6-BS!I9</f>
         <v>147395401.18746307</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="44">
         <f>+BS!J6-BS!J9</f>
         <v>162527762.0117228</v>
       </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="44"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44">
         <f t="shared" ref="F30:K30" si="2">+F29-E29</f>
         <v>5573127.7734079957</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="44">
         <f t="shared" si="2"/>
         <v>18187344.123934671</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="44">
         <f t="shared" si="2"/>
         <v>11928045.458712175</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="44">
         <f t="shared" si="2"/>
         <v>12445703.343814388</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="44">
         <f t="shared" si="2"/>
         <v>13723442.487593845</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="44">
         <f t="shared" si="2"/>
         <v>15132360.824259728</v>
       </c>
-      <c r="L30" s="45"/>
+      <c r="L30" s="44"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="60">
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="58">
         <v>0</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="58">
         <v>0</v>
       </c>
-      <c r="H31" s="60">
+      <c r="H31" s="58">
         <v>0</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="58">
         <v>0</v>
       </c>
-      <c r="J31" s="60">
+      <c r="J31" s="58">
         <v>0</v>
       </c>
-      <c r="K31" s="60">
+      <c r="K31" s="58">
         <v>0</v>
       </c>
-      <c r="L31" s="45"/>
+      <c r="L31" s="44"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44">
         <f>+IS!E40</f>
         <v>1556658</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="44">
         <f>+IS!F40</f>
         <v>1556658</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="44">
         <f>+IS!G40</f>
         <v>1556658</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="44">
         <f>+IS!H40</f>
         <v>1556658</v>
       </c>
-      <c r="J32" s="45">
+      <c r="J32" s="44">
         <f>+IS!I40</f>
         <v>1556658</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="44">
         <f>+IS!J40</f>
         <v>1556658</v>
       </c>
-      <c r="L32" s="45"/>
+      <c r="L32" s="44"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45">
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44">
         <f>+(BS!E5-BS!D5)+IS!E31</f>
         <v>8845303.5857694745</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="44">
         <f>+(BS!F5-BS!E5)+IS!F31</f>
         <v>25342422.629028976</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="44">
         <f>+(BS!G5-BS!F5)+IS!G31</f>
         <v>17156389.320413709</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I33" s="44">
         <f>+(BS!H5-BS!G5)+IS!H31</f>
         <v>17833392.434749603</v>
       </c>
-      <c r="J33" s="45">
+      <c r="J33" s="44">
         <f>+(BS!I5-BS!H5)+IS!I31</f>
         <v>19504444.696373582</v>
       </c>
-      <c r="K33" s="45">
+      <c r="K33" s="44">
         <f>+(BS!J5-BS!I5)+IS!J31</f>
         <v>21347055.674045473</v>
       </c>
-      <c r="L33" s="45"/>
+      <c r="L33" s="44"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="59">
         <f>-20000000/(1/5*1/3)</f>
         <v>-300000000</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="46">
         <f t="shared" ref="D34:F34" si="3">+D28-D30+D31+D32-D33</f>
         <v>0</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="46">
         <f t="shared" si="3"/>
         <v>16196349.897564407</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="46">
         <f>+G28-G30+G31+G32-G33</f>
         <v>84040709.816165283</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="46">
         <f t="shared" ref="H34:K34" si="4">+H28-H30+H31+H32-H33</f>
         <v>124020156.0235427</v>
       </c>
-      <c r="I34" s="47">
+      <c r="I34" s="46">
         <f t="shared" si="4"/>
         <v>131888462.04894984</v>
       </c>
-      <c r="J34" s="47">
+      <c r="J34" s="46">
         <f t="shared" si="4"/>
         <v>149010100.09741402</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="46">
         <f t="shared" si="4"/>
         <v>162333747.77678308</v>
       </c>
-      <c r="L34" s="47">
+      <c r="L34" s="46">
         <f>+L28*(1-(K5/K6))/(D18-K5)</f>
         <v>1137848350.4891405</v>
       </c>
@@ -5777,30 +5779,30 @@
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="48">
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="47">
         <f>1/(1+D18)</f>
         <v>0.87596355991590757</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="47">
         <f>+G35*$G$35</f>
         <v>0.76731215830054977</v>
       </c>
-      <c r="I35" s="48">
+      <c r="I35" s="47">
         <f>+H35*$G$35</f>
         <v>0.67213748975170795</v>
       </c>
-      <c r="J35" s="48">
+      <c r="J35" s="47">
         <f>+I35*$G$35</f>
         <v>0.58876794827584789</v>
       </c>
-      <c r="K35" s="48">
+      <c r="K35" s="47">
         <f>+J35*$G$35</f>
         <v>0.5157392679360967</v>
       </c>
-      <c r="L35" s="48">
+      <c r="L35" s="47">
         <f>+K35</f>
         <v>0.5157392679360967</v>
       </c>
@@ -5809,200 +5811,197 @@
       <c r="B36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47">
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="46">
         <f t="shared" ref="G36:L36" si="5">+G35*G34</f>
         <v>73616599.348427907</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="46">
         <f t="shared" si="5"/>
         <v>95162173.591195479</v>
       </c>
-      <c r="I36" s="47">
+      <c r="I36" s="46">
         <f t="shared" si="5"/>
         <v>88647179.808794543</v>
       </c>
-      <c r="J36" s="47">
+      <c r="J36" s="46">
         <f t="shared" si="5"/>
         <v>87732370.90673317</v>
       </c>
-      <c r="K36" s="47">
+      <c r="K36" s="46">
         <f t="shared" si="5"/>
         <v>83721888.239721075</v>
       </c>
-      <c r="L36" s="47">
+      <c r="L36" s="46">
         <f t="shared" si="5"/>
         <v>586833075.30356455</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="62">
         <v>4400</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="63" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="46">
         <f>+SUM(G36:L36)</f>
         <v>1015713287.1984367</v>
       </c>
-      <c r="D39" s="68">
+      <c r="D39" s="65">
         <f>+C39/$C$38</f>
         <v>230843.92890873563</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="69">
+      <c r="C40" s="44">
         <v>0</v>
       </c>
-      <c r="D40" s="70">
+      <c r="D40" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="69">
+      <c r="C41" s="44">
         <v>0</v>
       </c>
-      <c r="D41" s="70">
+      <c r="D41" s="66">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="67">
+      <c r="C42" s="46">
         <f>+C39+C40+C41</f>
         <v>1015713287.1984367</v>
       </c>
-      <c r="D42" s="68">
+      <c r="D42" s="65">
         <f>+D39+D40+D41</f>
         <v>230843.92890873563</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="70"/>
+      <c r="B43" s="68"/>
+      <c r="D43" s="66"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="74">
+      <c r="C44" s="69">
         <v>7</v>
       </c>
-      <c r="D44" s="75">
+      <c r="D44" s="70">
         <f>+C44</f>
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="76">
+      <c r="C45" s="10">
         <f>+IS!F42</f>
         <v>285639471.2418111</v>
       </c>
-      <c r="D45" s="77">
+      <c r="D45" s="71">
         <f>+C45/C38</f>
         <v>64918.061645866161</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="67">
+      <c r="C46" s="46">
         <f>+C45*C44</f>
         <v>1999476298.6926777</v>
       </c>
-      <c r="D46" s="68">
+      <c r="D46" s="65">
         <f>+C46/C38</f>
         <v>454426.43152106315</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="72"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="70"/>
+      <c r="B47" s="68"/>
+      <c r="D47" s="66"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="79">
+      <c r="C48" s="73">
         <f>+C34</f>
         <v>-300000000</v>
       </c>
-      <c r="D48" s="80">
+      <c r="D48" s="74">
         <f>+C48/$C$38</f>
         <v>-68181.818181818177</v>
       </c>
-      <c r="E48" s="62">
+      <c r="E48" s="60">
         <v>44561</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="10">
         <f>+C46</f>
         <v>1999476298.6926777</v>
       </c>
-      <c r="D49" s="77">
+      <c r="D49" s="71">
         <f>+C49/$C$38</f>
         <v>454426.43152106315</v>
       </c>
-      <c r="E49" s="62">
+      <c r="E49" s="60">
         <v>47483</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="72"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="70"/>
+      <c r="B50" s="68"/>
+      <c r="D50" s="66"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="81">
+      <c r="C51" s="75">
         <f>+IRR(C34:L34)</f>
         <v>0.26614973525058172</v>
       </c>
-      <c r="D51" s="82">
+      <c r="D51" s="76">
         <f>+C51</f>
         <v>0.26614973525058172</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="84">
+      <c r="C52" s="78">
         <f>+XIRR(C48:C49,E48:E49)</f>
         <v>0.26737137436866765</v>
       </c>
-      <c r="D52" s="85">
+      <c r="D52" s="79">
         <f>+C52</f>
         <v>0.26737137436866765</v>
       </c>
@@ -6036,213 +6035,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>72076487</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <f>+C8</f>
         <v>72076487</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f>D8</f>
         <v>90576197</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <f>E8</f>
         <v>123149659.06905799</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <f>F8</f>
         <v>136401037.76547217</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <f t="shared" ref="H5:J5" si="0">G8</f>
         <v>148712863.92128876</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="26">
         <f t="shared" si="0"/>
         <v>152209826.53510684</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <f t="shared" si="0"/>
         <v>150202828.54709762</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <f>C8-C5-C7</f>
         <v>33568463</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <f>D8-D5-D7</f>
         <v>98040502</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="34">
         <f>+D6*(1+E9)</f>
         <v>101471919.56999999</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <f t="shared" ref="F6:J6" si="1">+E6*(1+F9)</f>
         <v>105023436.75494999</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="26">
         <f t="shared" si="1"/>
         <v>108699257.04137322</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <f t="shared" si="1"/>
         <v>112503731.03782128</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <f t="shared" si="1"/>
         <v>116441361.62414502</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <f t="shared" si="1"/>
         <v>120516809.28099008</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <f>-IS!C33</f>
         <v>-33568463</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <f>-IS!D33</f>
         <v>-79540792</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <f>-IS!E33</f>
         <v>-68898457.500942007</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <f>-IS!F33</f>
         <v>-91772058.058535814</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <f>-IS!G33</f>
         <v>-96387430.885556638</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="30">
         <f>-IS!H33</f>
         <v>-109006768.42400318</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="30">
         <f>-IS!I33</f>
         <v>-118448359.61215426</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="30">
         <f>-IS!J33</f>
         <v>-131325554.80965064</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <f>+BS!C6</f>
         <v>72076487</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <f>+BS!D6</f>
         <v>90576197</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <f>+SUM(E5:E7)</f>
         <v>123149659.06905799</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <f t="shared" ref="F8:J8" si="2">+SUM(F5:F7)</f>
         <v>136401037.76547217</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <f t="shared" si="2"/>
         <v>148712863.92128876</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <f t="shared" si="2"/>
         <v>152209826.53510684</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <f t="shared" si="2"/>
         <v>150202828.54709762</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="31">
         <f t="shared" si="2"/>
         <v>139394083.01843703</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E9" s="16">

--- a/results/financial_model.xlsx
+++ b/results/financial_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\time_series_padova\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F91F9AE-D3A8-4E06-9D82-6181365AEED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244182F8-93D1-4FC2-8D13-55E7B8FB037F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forecast" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
   <si>
     <t>date</t>
   </si>
@@ -310,9 +310,6 @@
     <t>IRR FCF</t>
   </si>
   <si>
-    <t>IRR AVG EV</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
@@ -329,6 +326,15 @@
   </si>
   <si>
     <t>Ingresos</t>
+  </si>
+  <si>
+    <t>IRR EBITDA Multiple</t>
+  </si>
+  <si>
+    <t>Free Cashflow Method</t>
+  </si>
+  <si>
+    <t>EBITDA Method</t>
   </si>
 </sst>
 </file>
@@ -345,7 +351,7 @@
     <numFmt numFmtId="169" formatCode="0.000%"/>
     <numFmt numFmtId="170" formatCode="0.00\x"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +590,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -749,7 +762,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -865,10 +878,19 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1798,6 +1820,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09BA25F-3C01-30A5-CADD-399094E88319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3779520" y="7589520"/>
+          <a:ext cx="2979420" cy="2385060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2064,7 +2152,7 @@
   <dimension ref="B1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B39"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2354,8 +2442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314C7F96-EC5F-4760-9CB2-5CA48DBFFB51}">
   <dimension ref="B1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3708,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B44F11-AD96-4F90-96F3-54D69B79CC8C}">
   <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3758,7 +3846,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="11">
         <v>920048738</v>
@@ -4141,7 +4229,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="10">
         <f>+C5/CF!$C$38</f>
@@ -4197,7 +4285,7 @@
         <f>+AVERAGE(C20:D20)</f>
         <v>0.38870141676859937</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="81">
         <v>0.35</v>
       </c>
       <c r="G20" s="16">
@@ -4270,7 +4358,7 @@
         <f>+AVERAGE(C22:D22)</f>
         <v>0.50846258394596344</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F22" s="81">
         <v>0.45</v>
       </c>
       <c r="G22" s="16">
@@ -5135,18 +5223,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B502B8-38B1-4B53-AFCB-AAA416599912}">
-  <dimension ref="B1:L52"/>
+  <dimension ref="B1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="9" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="9" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="10.5546875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="11.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
@@ -5189,10 +5277,10 @@
       <c r="H5" s="57">
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="57">
         <v>0.03</v>
       </c>
@@ -5213,10 +5301,10 @@
       <c r="H6" s="57">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="81"/>
+      <c r="J6" s="82"/>
       <c r="K6" s="57">
         <v>0.08</v>
       </c>
@@ -5841,42 +5929,38 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="62">
         <v>4400</v>
       </c>
       <c r="D38" s="63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="46">
+      <c r="B39" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="46">
         <f>+SUM(G36:L36)</f>
         <v>1015713287.1984367</v>
       </c>
-      <c r="D39" s="65">
-        <f>+C39/$C$38</f>
+      <c r="D40" s="65">
+        <f>+C40/$C$38</f>
         <v>230843.92890873563</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="44">
-        <v>0</v>
-      </c>
-      <c r="D40" s="66">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="64" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C41" s="44">
         <v>0</v>
@@ -5886,132 +5970,149 @@
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="44">
+        <v>0</v>
+      </c>
+      <c r="D42" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="46">
-        <f>+C39+C40+C41</f>
+      <c r="C43" s="46">
+        <f>+C40+C41+C42</f>
         <v>1015713287.1984367</v>
       </c>
-      <c r="D42" s="65">
-        <f>+D39+D40+D41</f>
+      <c r="D43" s="65">
+        <f>+D40+D41+D42</f>
         <v>230843.92890873563</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="68"/>
-      <c r="D43" s="66"/>
-    </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="69">
-        <v>7</v>
-      </c>
-      <c r="D44" s="70">
-        <f>+C44</f>
-        <v>7</v>
-      </c>
+      <c r="B44" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="69">
+        <v>7</v>
+      </c>
+      <c r="D45" s="70">
+        <f>+C45</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="10">
-        <f>+IS!F42</f>
-        <v>285639471.2418111</v>
-      </c>
-      <c r="D45" s="71">
-        <f>+C45/C38</f>
-        <v>64918.061645866161</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="72" t="s">
+      <c r="C46" s="10">
+        <f>+IS!J42</f>
+        <v>434797102.92517108</v>
+      </c>
+      <c r="D46" s="71">
+        <f>+C46/C38</f>
+        <v>98817.523392084331</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="46">
-        <f>+C45*C44</f>
-        <v>1999476298.6926777</v>
-      </c>
-      <c r="D46" s="65">
-        <f>+C46/C38</f>
-        <v>454426.43152106315</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="68"/>
-      <c r="D47" s="66"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="73">
+      <c r="C47" s="46">
+        <f>+C46*C45</f>
+        <v>3043579720.4761977</v>
+      </c>
+      <c r="D47" s="65">
+        <f>+C47/C38</f>
+        <v>691722.66374459036</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="68"/>
+      <c r="D48" s="66"/>
+    </row>
+    <row r="49" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="73">
         <f>+C34</f>
         <v>-300000000</v>
       </c>
-      <c r="D48" s="74">
-        <f>+C48/$C$38</f>
+      <c r="D49" s="74">
+        <f>+C49/$C$38</f>
         <v>-68181.818181818177</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E49" s="60">
         <v>44561</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="68" t="s">
+    <row r="50" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="10">
-        <f>+C46</f>
-        <v>1999476298.6926777</v>
-      </c>
-      <c r="D49" s="71">
-        <f>+C49/$C$38</f>
-        <v>454426.43152106315</v>
-      </c>
-      <c r="E49" s="60">
+      <c r="C50" s="10">
+        <f>+C47</f>
+        <v>3043579720.4761977</v>
+      </c>
+      <c r="D50" s="71">
+        <f>+C50/$C$38</f>
+        <v>691722.66374459036</v>
+      </c>
+      <c r="E50" s="60">
         <v>47483</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="68"/>
-      <c r="D50" s="66"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="72" t="s">
+    <row r="51" spans="2:5" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="68"/>
+      <c r="D51" s="66"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="75">
+      <c r="C52" s="75">
         <f>+IRR(C34:L34)</f>
         <v>0.26614973525058172</v>
       </c>
-      <c r="D51" s="76">
-        <f>+C51</f>
+      <c r="D52" s="76">
+        <f>+C52</f>
         <v>0.26614973525058172</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="78">
-        <f>+XIRR(C48:C49,E48:E49)</f>
-        <v>0.26737137436866765</v>
-      </c>
-      <c r="D52" s="79">
-        <f>+C52</f>
-        <v>0.26737137436866765</v>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="78">
+        <f>+XIRR(C49:C50,E49:E50)</f>
+        <v>0.33566281199455261</v>
+      </c>
+      <c r="D53" s="79">
+        <f>+C53</f>
+        <v>0.33566281199455261</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
